--- a/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Greece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1378,6 +1378,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1390,14 +1417,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1408,23 +1429,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1432,29 +1441,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="50">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1832,55 +1833,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1912,9 +1864,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="55"/>
-    <tableColumn id="2" name="Link" dataDxfId="54" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="53"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2185,48 +2137,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2247,17 +2199,17 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>127</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2277,14 +2229,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="10"/>
@@ -2305,14 +2257,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="10"/>
@@ -2333,14 +2285,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="10"/>
@@ -2361,14 +2313,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="10"/>
@@ -2389,14 +2341,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="10"/>
@@ -2417,14 +2369,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="10"/>
@@ -2445,14 +2397,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="10"/>
@@ -2473,14 +2425,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="10"/>
@@ -2501,14 +2453,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="10"/>
@@ -2529,14 +2481,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="10"/>
@@ -2557,14 +2509,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="10"/>
@@ -2585,14 +2537,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="10"/>
@@ -2613,14 +2565,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="10"/>
@@ -2641,14 +2593,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="10"/>
@@ -2669,14 +2621,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="10"/>
@@ -2697,14 +2649,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="10"/>
@@ -2725,14 +2677,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="10"/>
@@ -2753,14 +2705,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="10"/>
@@ -2790,7 +2742,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2807,7 +2759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -2822,7 +2774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2839,7 +2791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2856,7 +2808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2887,41 +2839,41 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2942,17 +2894,17 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>127</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2972,14 +2924,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="10"/>
@@ -3000,14 +2952,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="10"/>
@@ -3028,14 +2980,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="10"/>
@@ -3056,14 +3008,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="10"/>
@@ -3084,14 +3036,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="10"/>
@@ -3112,14 +3064,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="10"/>
@@ -3140,14 +3092,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="10"/>
@@ -3168,14 +3120,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="10"/>
@@ -3196,14 +3148,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="10"/>
@@ -3224,14 +3176,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="10"/>
@@ -3252,14 +3204,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="10"/>
@@ -3280,14 +3232,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="10"/>
@@ -3308,14 +3260,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="10"/>
@@ -3336,14 +3288,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="10"/>
@@ -3364,14 +3316,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="10"/>
@@ -3392,14 +3344,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="10"/>
@@ -3420,14 +3372,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="10"/>
@@ -3448,14 +3400,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="10"/>
@@ -3485,7 +3437,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G21">
-    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3502,7 +3454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3519,7 +3471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3536,7 +3488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3551,7 +3503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3568,7 +3520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3601,41 +3553,41 @@
       <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3656,17 +3608,17 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>127</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3686,14 +3638,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="10"/>
@@ -3714,14 +3666,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="10"/>
@@ -3742,14 +3694,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="10"/>
@@ -3770,14 +3722,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="10"/>
@@ -3798,14 +3750,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="10"/>
@@ -3826,14 +3778,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="10"/>
@@ -3854,14 +3806,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="10"/>
@@ -3882,14 +3834,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="10"/>
@@ -3910,14 +3862,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="10"/>
@@ -3938,14 +3890,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="10"/>
@@ -3966,14 +3918,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="10"/>
@@ -3994,14 +3946,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="10"/>
@@ -4022,14 +3974,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="10"/>
@@ -4050,14 +4002,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="10"/>
@@ -4078,14 +4030,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="10"/>
@@ -4106,14 +4058,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="10"/>
@@ -4134,14 +4086,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="10"/>
@@ -4162,14 +4114,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="10"/>
@@ -4199,7 +4151,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:G21 G5:G14">
-    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4216,7 +4168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4233,7 +4185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4250,7 +4202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4267,7 +4219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4282,7 +4234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4299,7 +4251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4325,49 +4277,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4391,20 +4343,20 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="22" t="s">
         <v>127</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -4424,14 +4376,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -4455,14 +4407,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -4486,14 +4438,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -4517,14 +4469,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -4548,14 +4500,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -4579,14 +4531,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4600,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -4610,14 +4562,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -4641,14 +4593,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -4672,14 +4624,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -4703,14 +4655,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -4734,14 +4686,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -4765,14 +4717,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -4796,14 +4748,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -4827,14 +4779,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -4858,14 +4810,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -4889,14 +4841,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -4920,14 +4872,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -4951,14 +4903,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -4991,7 +4943,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5008,7 +4960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5025,7 +4977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5040,7 +4992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5055,7 +5007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5072,7 +5024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5105,42 +5057,42 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5164,20 +5116,20 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="22" t="s">
         <v>127</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -5197,14 +5149,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -5228,14 +5180,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -5259,14 +5211,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -5290,14 +5242,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -5321,14 +5273,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -5352,14 +5304,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -5383,14 +5335,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -5414,14 +5366,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -5445,14 +5397,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -5476,14 +5428,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -5507,14 +5459,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -5538,14 +5490,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -5569,14 +5521,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -5600,14 +5552,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -5631,14 +5583,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -5662,14 +5614,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -5693,14 +5645,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -5724,14 +5676,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -5764,7 +5716,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5781,7 +5733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5798,7 +5750,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H21">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5818,7 +5770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5863,42 +5815,42 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5922,20 +5874,20 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="22" t="s">
         <v>127</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -5955,14 +5907,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -5986,14 +5938,14 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -6017,14 +5969,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -6048,14 +6000,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -6079,14 +6031,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -6110,14 +6062,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -6141,14 +6093,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -6172,14 +6124,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -6203,14 +6155,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -6234,14 +6186,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -6265,14 +6217,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -6296,14 +6248,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -6327,14 +6279,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -6358,14 +6310,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -6389,14 +6341,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -6420,14 +6372,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -6451,14 +6403,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -6482,14 +6434,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -6522,7 +6474,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6539,7 +6491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6556,7 +6508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6571,7 +6523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6586,7 +6538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6603,7 +6555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6633,42 +6585,42 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="39"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -6692,20 +6644,20 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="22" t="s">
         <v>127</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -6725,14 +6677,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -6756,14 +6708,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -6787,14 +6739,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -6818,14 +6770,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -6849,14 +6801,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -6880,14 +6832,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -6911,14 +6863,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -6942,14 +6894,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -6973,14 +6925,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -7004,14 +6956,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -7035,14 +6987,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -7066,14 +7018,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -7097,14 +7049,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -7128,14 +7080,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -7159,14 +7111,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -7190,14 +7142,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -7221,14 +7173,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -7252,14 +7204,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -7292,7 +7244,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7309,7 +7261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7326,7 +7278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7341,7 +7293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7356,7 +7308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7373,7 +7325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7406,42 +7358,42 @@
       <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="39"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -7465,20 +7417,20 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="22" t="s">
         <v>127</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -7498,14 +7450,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -7529,14 +7481,14 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -7560,14 +7512,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -7591,14 +7543,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -7622,14 +7574,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -7653,14 +7605,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -7684,14 +7636,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -7715,14 +7667,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -7746,14 +7698,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -7777,14 +7729,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -7808,14 +7760,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -7839,14 +7791,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -7870,14 +7822,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -7901,14 +7853,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -7932,14 +7884,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -7963,14 +7915,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -7994,14 +7946,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -8025,14 +7977,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -8065,7 +8017,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8082,7 +8034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8099,7 +8051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -8114,7 +8066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8129,7 +8081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8146,7 +8098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8179,14 +8131,14 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -8197,7 +8149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -8208,7 +8160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -8219,7 +8171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -8230,7 +8182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -8241,7 +8193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -8252,7 +8204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -8263,7 +8215,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>6</v>
       </c>

--- a/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6836AE-7A34-4333-9E8E-EF4B1FE8B063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,13 +33,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -105,13 +106,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -178,13 +179,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -251,13 +252,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -288,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -324,13 +325,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -361,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -376,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -397,13 +398,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -449,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -470,13 +471,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -507,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -522,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -543,13 +544,13 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -564,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -580,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +617,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="144">
   <si>
     <t>-</t>
   </si>
@@ -1028,12 +1029,33 @@
   </si>
   <si>
     <t>Obv: Abduction of Europa</t>
+  </si>
+  <si>
+    <t>50.010.000</t>
+  </si>
+  <si>
+    <t>43.010.000</t>
+  </si>
+  <si>
+    <t>13.010.000</t>
+  </si>
+  <si>
+    <t>40.010.000</t>
+  </si>
+  <si>
+    <t>32.010.000</t>
+  </si>
+  <si>
+    <t>7.010.000</t>
+  </si>
+  <si>
+    <t>10.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1445,9 +1467,137 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1857,16 +2007,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="17" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2134,14 +2284,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2733,6 +2883,34 @@
         <v/>
       </c>
     </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" ref="I22" si="1">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-"),AND(H22&gt;1,H22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -2742,11 +2920,43 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G21">
+    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2758,11 +2968,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2773,12 +2985,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2790,12 +3000,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2807,21 +3032,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2829,14 +3039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2976,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f t="shared" ref="I5:I21" si="0">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-"),AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I5:I22" si="0">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-"),AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3424,6 +3634,34 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3437,11 +3675,45 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G21">
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3453,12 +3725,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3470,12 +3740,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3487,10 +3757,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3502,12 +3774,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3519,12 +3791,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3543,14 +3813,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3690,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f t="shared" ref="I5:I21" si="0">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-"),AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I5:I22" si="0">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-"),AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4138,6 +4408,34 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4151,11 +4449,45 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:G21 G5:G14">
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G21 G5:G14">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4167,12 +4499,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4184,12 +4516,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4201,12 +4531,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4218,10 +4548,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4233,12 +4565,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4250,12 +4582,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4274,14 +4604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4934,6 +5264,37 @@
         <v/>
       </c>
     </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" ref="J22" si="1">IF(OR(AND(H22&gt;1,H22&lt;&gt;"-"),AND(I22&gt;1,I22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -4943,11 +5304,43 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4959,12 +5352,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4976,10 +5367,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4991,10 +5384,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5006,12 +5401,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5023,12 +5418,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5047,14 +5440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B21"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5176,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4:J21" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J4:J22" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5703,6 +6096,37 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5716,11 +6140,43 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H21">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5732,12 +6188,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5749,10 +6210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H21">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5764,17 +6222,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5786,7 +6239,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5805,14 +6261,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B21"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5965,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J21" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J5:J22" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -6461,6 +6917,37 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6474,11 +6961,43 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6490,12 +7009,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6507,10 +7024,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6522,10 +7041,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6537,12 +7058,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6554,12 +7075,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6578,11 +7097,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7235,6 +7754,37 @@
         <v/>
       </c>
     </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" ref="J22" si="2">IF(OR(AND(H22&gt;1,H22&lt;&gt;"-"),AND(I22&gt;1,I22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -7244,11 +7794,43 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7260,13 +7842,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7277,10 +7857,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7292,10 +7874,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7307,29 +7908,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7348,14 +7930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7508,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J21" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J5:J22" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -8004,6 +8586,37 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8017,11 +8630,43 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8033,12 +8678,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8050,11 +8710,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -8065,10 +8727,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8080,29 +8744,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8121,7 +8766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8228,13 +8873,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Greece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6836AE-7A34-4333-9E8E-EF4B1FE8B063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F9EBB-BADA-4747-8663-2AB6038A0F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -617,7 +626,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="166">
   <si>
     <t>-</t>
   </si>
@@ -1050,13 +1059,82 @@
   </si>
   <si>
     <t>10.000</t>
+  </si>
+  <si>
+    <t>МД</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>10c</t>
+  </si>
+  <si>
+    <t>22.010.000</t>
+  </si>
+  <si>
+    <t>25.010.000</t>
+  </si>
+  <si>
+    <t>16.010.000</t>
+  </si>
+  <si>
+    <t>8.010.000</t>
+  </si>
+  <si>
+    <t>5.010.000</t>
+  </si>
+  <si>
+    <t>6.007.500</t>
+  </si>
+  <si>
+    <t>23.007.500</t>
+  </si>
+  <si>
+    <t>24.007.500</t>
+  </si>
+  <si>
+    <t>7.500</t>
+  </si>
+  <si>
+    <t>22.007.500</t>
+  </si>
+  <si>
+    <t>17.007.500</t>
+  </si>
+  <si>
+    <t>13.007.500</t>
+  </si>
+  <si>
+    <t>28.007.500</t>
+  </si>
+  <si>
+    <t>39.007.500</t>
+  </si>
+  <si>
+    <t>19.007.500</t>
+  </si>
+  <si>
+    <t>10.007.500</t>
+  </si>
+  <si>
+    <t>5.007.500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1119,6 +1197,10 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1341,7 +1423,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1463,13 +1545,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="69">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1477,135 +1560,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1983,6 +1937,159 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2014,9 +2121,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="17" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="67" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2285,27 +2392,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2433,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
@@ -2349,7 +2456,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
@@ -2379,7 +2486,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
@@ -2407,7 +2514,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
@@ -2435,7 +2542,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
@@ -2463,7 +2570,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
@@ -2491,7 +2598,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
@@ -2519,7 +2626,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
@@ -2547,7 +2654,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
@@ -2575,7 +2682,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
@@ -2603,7 +2710,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
@@ -2631,7 +2738,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
@@ -2659,7 +2766,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
@@ -2687,7 +2794,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
@@ -2715,7 +2822,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
@@ -2743,7 +2850,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
@@ -2771,7 +2878,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
@@ -2799,7 +2906,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
@@ -2827,7 +2934,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
@@ -2855,7 +2962,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
@@ -2883,7 +2990,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2020</v>
       </c>
@@ -2908,6 +3015,90 @@
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" ref="I22" si="1">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-"),AND(H22&gt;1,H22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" ref="I23:I25" si="2">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-"),AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2919,6 +3110,7 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H5:H21">
     <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
@@ -2936,7 +3128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G21">
+  <conditionalFormatting sqref="G4:G21 G23 G25">
     <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
@@ -3000,12 +3192,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H22:H25">
+    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H22:H25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3017,8 +3209,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G22 G24">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3040,27 +3232,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M23:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3081,7 +3273,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32"/>
       <c r="B2" s="34"/>
       <c r="C2" s="5" t="s">
@@ -3104,7 +3296,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
@@ -3134,7 +3326,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
@@ -3162,7 +3354,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
@@ -3190,7 +3382,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
@@ -3218,7 +3410,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
@@ -3246,7 +3438,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
@@ -3274,7 +3466,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
@@ -3302,7 +3494,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
@@ -3330,7 +3522,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
@@ -3358,7 +3550,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
@@ -3386,7 +3578,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
@@ -3414,7 +3606,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
@@ -3442,7 +3634,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
@@ -3470,7 +3662,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
@@ -3498,7 +3690,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
@@ -3526,7 +3718,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
@@ -3554,7 +3746,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
@@ -3582,7 +3774,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
@@ -3610,7 +3802,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
@@ -3638,7 +3830,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2020</v>
       </c>
@@ -3664,6 +3856,133 @@
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" ref="I23:I25" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-"),AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="N23" t="s">
+        <v>144</v>
+      </c>
+      <c r="O23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M24">
+        <v>2021</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M25">
+        <v>2022</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M26">
+        <v>2023</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N27" t="s">
+        <v>144</v>
+      </c>
+      <c r="O27" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3674,12 +3993,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:G21">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="G5:G21 G23 G25">
+    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G21">
+  <conditionalFormatting sqref="G5:G21 G23 G25">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3692,7 +4012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3709,7 +4029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3726,7 +4046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -3741,7 +4061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3758,7 +4078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3774,12 +4094,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H22:H25">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H22:H25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3791,8 +4111,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G22 G24">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3814,27 +4134,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3855,7 +4175,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
@@ -3878,7 +4198,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
@@ -3908,7 +4228,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
@@ -3936,7 +4256,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
@@ -3964,7 +4284,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
@@ -3992,7 +4312,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
@@ -4020,7 +4340,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
@@ -4048,7 +4368,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
@@ -4076,7 +4396,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
@@ -4104,7 +4424,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
@@ -4132,7 +4452,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
@@ -4160,7 +4480,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
@@ -4188,7 +4508,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
@@ -4216,7 +4536,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
@@ -4244,7 +4564,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
@@ -4272,7 +4592,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
@@ -4300,7 +4620,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
@@ -4328,7 +4648,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
@@ -4356,7 +4676,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
@@ -4384,7 +4704,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
@@ -4412,7 +4732,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2020</v>
       </c>
@@ -4437,6 +4757,90 @@
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" ref="I23:I24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-"),AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" ref="I25" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-"),AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4448,12 +4852,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G16:G21 G5:G14">
-    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="G16:G21 G5:G14 G23 G25">
+    <cfRule type="containsText" dxfId="50" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G21 G5:G14">
+  <conditionalFormatting sqref="G16:G21 G5:G14 G23 G25">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4466,7 +4871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4483,7 +4888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4500,7 +4905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4517,7 +4922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4532,7 +4937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4549,7 +4954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4565,12 +4970,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H22:H25">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H22:H25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4582,8 +4987,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G22 G24">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4605,27 +5010,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4647,7 +5052,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32"/>
       <c r="B2" s="34"/>
       <c r="C2" s="5" t="s">
@@ -4673,7 +5078,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2002</v>
       </c>
@@ -4706,7 +5111,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
@@ -4737,7 +5142,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
@@ -4768,7 +5173,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
@@ -4799,7 +5204,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
@@ -4830,7 +5235,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
@@ -4861,7 +5266,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
@@ -4892,7 +5297,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
@@ -4923,7 +5328,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
@@ -4954,7 +5359,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2010</v>
       </c>
@@ -4985,7 +5390,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
@@ -5016,7 +5421,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2012</v>
       </c>
@@ -5047,7 +5452,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2013</v>
       </c>
@@ -5078,7 +5483,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2014</v>
       </c>
@@ -5109,7 +5514,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
@@ -5140,7 +5545,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
@@ -5171,7 +5576,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
@@ -5202,7 +5607,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
@@ -5233,7 +5638,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
@@ -5264,7 +5669,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2020</v>
       </c>
@@ -5292,6 +5697,99 @@
       </c>
       <c r="J22" s="3" t="str">
         <f t="shared" ref="J22" si="1">IF(OR(AND(H22&gt;1,H22&lt;&gt;"-"),AND(I22&gt;1,I22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" ref="J23:J25" si="2">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-"),AND(I23&gt;1,I23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5303,8 +5801,3861 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21 H23 H25">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N24:S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" ref="J4:J22" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" ref="J23:J25" si="1">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-"),AND(I23&gt;1,I23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>146</v>
+      </c>
+      <c r="R24" t="s">
+        <v>147</v>
+      </c>
+      <c r="S24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N25">
+        <v>2021</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>150</v>
+      </c>
+      <c r="R25" t="s">
+        <v>151</v>
+      </c>
+      <c r="S25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N26">
+        <v>2022</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>155</v>
+      </c>
+      <c r="R26" t="s">
+        <v>156</v>
+      </c>
+      <c r="S26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N27">
+        <v>2023</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>159</v>
+      </c>
+      <c r="R27" t="s">
+        <v>160</v>
+      </c>
+      <c r="S27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O28" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>146</v>
+      </c>
+      <c r="R28" t="s">
+        <v>147</v>
+      </c>
+      <c r="S28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H21 H23 H25">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22 H24">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:U27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M23:S27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" ref="J4" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" ref="J5:J22" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" ref="J23:J25" si="2">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-"),AND(I23&gt;1,I23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="U23" s="43"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U27" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H23 H25">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25:U29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" ref="J4" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" ref="J5:J21" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" ref="J22" si="2">IF(OR(AND(H22&gt;1,H22&lt;&gt;"-"),AND(I22&gt;1,I22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" ref="J23:J25" si="3">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-"),AND(I23&gt;1,I23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H21">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H24">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L27:T31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" ref="J4" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" ref="J5:J22" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" ref="J23:J25" si="2">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-"),AND(I23&gt;1,I23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U27" s="43"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U31" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5321,7 +9672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5338,7 +9689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5353,9 +9704,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5367,25 +9735,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5401,12 +9752,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+  <conditionalFormatting sqref="I22:I25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5418,3333 +9769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4:J22" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H21">
-    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J22" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J21" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="str">
-        <f t="shared" ref="J22" si="2">IF(OR(AND(H22&gt;1,H22&lt;&gt;"-"),AND(I22&gt;1,I22&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J22" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H22:H25">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
@@ -8776,14 +9801,14 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -8794,7 +9819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -8805,7 +9830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -8816,7 +9841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -8827,7 +9852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -8838,7 +9863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -8849,7 +9874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -8860,7 +9885,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>6</v>
       </c>

--- a/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F9EBB-BADA-4747-8663-2AB6038A0F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EE9230-1D2E-40EB-9FAF-684A5E423762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -626,15 +626,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="161">
   <si>
     <t>-</t>
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Type</t>
@@ -1061,21 +1058,6 @@
     <t>10.000</t>
   </si>
   <si>
-    <t>МД</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>5c</t>
-  </si>
-  <si>
-    <t>10c</t>
-  </si>
-  <si>
     <t>22.010.000</t>
   </si>
   <si>
@@ -1125,6 +1107,9 @@
   </si>
   <si>
     <t>5.007.500</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1365,30 +1350,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -1423,7 +1384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1485,6 +1446,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1509,12 +1471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1533,10 +1489,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,7 +1501,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1553,6 +1508,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="69">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2081,15 +2045,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2121,9 +2076,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="67" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2394,11 +2349,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2413,46 +2368,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2461,19 +2416,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -2491,14 +2446,14 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -2519,14 +2474,14 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -2547,14 +2502,14 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2575,14 +2530,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2603,14 +2558,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2631,14 +2586,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2659,14 +2614,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2687,14 +2642,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2715,14 +2670,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2743,14 +2698,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2771,14 +2726,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2799,14 +2754,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -2827,14 +2782,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -2855,14 +2810,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -2883,14 +2838,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -2911,14 +2866,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -2939,14 +2894,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -2967,14 +2922,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -2995,14 +2950,14 @@
         <v>2020</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -3023,14 +2978,14 @@
         <v>2021</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -3051,14 +3006,14 @@
         <v>2022</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>0</v>
@@ -3079,14 +3034,14 @@
         <v>2023</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>0</v>
@@ -3112,7 +3067,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3129,7 +3084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21 G23 G25">
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -3144,7 +3099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3161,7 +3116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3178,7 +3133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -3193,7 +3148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H25">
-    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3209,8 +3164,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G22">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3232,13 +3187,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M23:O27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3253,46 +3208,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3301,19 +3256,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -3331,14 +3286,14 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -3359,14 +3314,14 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3387,14 +3342,14 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3415,14 +3370,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3443,14 +3398,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3471,14 +3426,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3499,14 +3454,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3527,14 +3482,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3555,14 +3510,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3583,14 +3538,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3611,14 +3566,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3639,14 +3594,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -3667,14 +3622,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -3690,19 +3645,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3718,19 +3673,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3746,19 +3701,19 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -3774,19 +3729,19 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -3802,19 +3757,19 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -3830,19 +3785,19 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2020</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -3858,19 +3813,19 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2021</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -3885,26 +3840,20 @@
         <f t="shared" ref="I23:I25" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-"),AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="N23" t="s">
-        <v>144</v>
-      </c>
-      <c r="O23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2022</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>0</v>
@@ -3919,29 +3868,20 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M24">
-        <v>2021</v>
-      </c>
-      <c r="N24" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>2023</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>0</v>
@@ -3955,34 +3895,6 @@
       <c r="I25" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="M25">
-        <v>2022</v>
-      </c>
-      <c r="N25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M26">
-        <v>2023</v>
-      </c>
-      <c r="N26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N27" t="s">
-        <v>144</v>
-      </c>
-      <c r="O27" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3995,7 +3907,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G5:G21 G23 G25">
-    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4012,7 +3924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4029,7 +3941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4046,7 +3958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4061,7 +3973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4078,7 +3990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4095,7 +4007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H25">
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4111,8 +4023,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G22">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4140,7 +4052,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23:O27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4155,46 +4067,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4203,19 +4115,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -4233,14 +4145,14 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -4261,14 +4173,14 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -4289,14 +4201,14 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4317,14 +4229,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4345,14 +4257,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4373,14 +4285,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4401,14 +4313,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4429,14 +4341,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -4457,14 +4369,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -4485,14 +4397,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -4513,14 +4425,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -4541,14 +4453,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -4569,14 +4481,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -4597,14 +4509,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4625,14 +4537,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4653,14 +4565,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -4681,14 +4593,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -4709,14 +4621,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -4737,14 +4649,14 @@
         <v>2020</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -4765,14 +4677,14 @@
         <v>2021</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -4793,14 +4705,14 @@
         <v>2022</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>0</v>
@@ -4821,14 +4733,14 @@
         <v>2023</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>0</v>
@@ -4854,7 +4766,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G16:G21 G5:G14 G23 G25">
-    <cfRule type="containsText" dxfId="50" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4871,7 +4783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4888,7 +4800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4905,7 +4817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4922,7 +4834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4937,7 +4849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4954,7 +4866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4971,7 +4883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H25">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4987,8 +4899,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G22">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5016,7 +4928,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5031,50 +4943,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -5083,22 +4995,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -5116,17 +5028,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -5147,17 +5059,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -5178,17 +5090,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -5209,17 +5121,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -5240,17 +5152,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -5271,17 +5183,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -5302,17 +5214,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -5333,17 +5245,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -5364,17 +5276,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -5395,17 +5307,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -5426,17 +5338,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -5457,17 +5369,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -5488,17 +5400,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -5519,17 +5431,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -5550,17 +5462,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -5581,17 +5493,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -5612,17 +5524,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -5643,17 +5555,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -5674,17 +5586,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -5705,17 +5617,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -5736,17 +5648,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -5767,17 +5679,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -5803,7 +5715,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5820,7 +5732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5837,7 +5749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21 H23 H25">
-    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -5852,7 +5764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5867,7 +5779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5884,7 +5796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5901,7 +5813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I25">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5918,7 +5830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5933,7 +5845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5957,13 +5869,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N24:S28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5978,50 +5890,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -6030,22 +5942,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -6063,17 +5975,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -6094,17 +6006,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -6125,17 +6037,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -6156,17 +6068,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -6187,17 +6099,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -6218,17 +6130,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -6249,17 +6161,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -6280,17 +6192,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -6311,17 +6223,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -6342,17 +6254,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -6373,17 +6285,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -6404,17 +6316,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -6435,17 +6347,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -6461,22 +6373,22 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -6492,22 +6404,22 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -6523,22 +6435,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -6554,22 +6466,22 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -6585,22 +6497,22 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -6616,22 +6528,22 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -6647,22 +6559,22 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -6678,22 +6590,22 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -6708,38 +6620,23 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O24" t="s">
-        <v>144</v>
-      </c>
-      <c r="P24" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>146</v>
-      </c>
-      <c r="R24" t="s">
-        <v>147</v>
-      </c>
-      <c r="S24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -6753,81 +6650,6 @@
       <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="N25">
-        <v>2021</v>
-      </c>
-      <c r="O25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>150</v>
-      </c>
-      <c r="R25" t="s">
-        <v>151</v>
-      </c>
-      <c r="S25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N26">
-        <v>2022</v>
-      </c>
-      <c r="O26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>155</v>
-      </c>
-      <c r="R26" t="s">
-        <v>156</v>
-      </c>
-      <c r="S26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N27">
-        <v>2023</v>
-      </c>
-      <c r="O27" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>159</v>
-      </c>
-      <c r="R27" t="s">
-        <v>160</v>
-      </c>
-      <c r="S27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O28" t="s">
-        <v>144</v>
-      </c>
-      <c r="P28" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>146</v>
-      </c>
-      <c r="R28" t="s">
-        <v>147</v>
-      </c>
-      <c r="S28" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6840,7 +6662,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6857,7 +6679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6874,7 +6696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H21 H23 H25">
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6889,12 +6711,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6923,7 +6745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I25">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6939,8 +6761,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H24">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H24 H22">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6968,7 +6790,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M23:S27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6983,50 +6805,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -7035,22 +6857,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -7068,17 +6890,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -7099,17 +6921,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -7130,17 +6952,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -7161,17 +6983,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -7192,17 +7014,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -7223,17 +7045,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -7254,17 +7076,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -7285,17 +7107,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -7316,17 +7138,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -7347,17 +7169,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -7378,17 +7200,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -7409,17 +7231,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -7440,17 +7262,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -7471,17 +7293,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -7502,17 +7324,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -7533,17 +7355,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -7564,17 +7386,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -7595,17 +7417,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -7626,17 +7448,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -7657,17 +7479,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -7682,24 +7504,24 @@
         <f t="shared" ref="J23:J25" si="2">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-"),AND(I23&gt;1,I23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="U23" s="43"/>
+      <c r="U23" s="23"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -7720,17 +7542,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -7747,7 +7569,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U27" s="43"/>
+      <c r="U27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7759,7 +7581,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7776,7 +7598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7793,7 +7615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7808,7 +7630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7823,7 +7645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7840,7 +7662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7857,7 +7679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I25">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7874,7 +7696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23 H25">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7889,7 +7711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7917,7 +7739,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25:U29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7932,50 +7754,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -7984,22 +7806,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -8017,17 +7839,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -8048,17 +7870,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -8079,17 +7901,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -8110,17 +7932,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -8141,17 +7963,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -8172,17 +7994,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -8203,17 +8025,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -8234,17 +8056,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -8265,17 +8087,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -8296,17 +8118,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -8327,17 +8149,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -8358,17 +8180,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -8389,17 +8211,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -8420,17 +8242,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -8451,17 +8273,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -8482,17 +8304,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -8513,17 +8335,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -8544,17 +8366,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -8575,17 +8397,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -8606,17 +8428,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -8637,17 +8459,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -8668,17 +8490,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -8704,7 +8526,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8721,7 +8543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8738,7 +8560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8753,7 +8575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -8768,7 +8590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8785,7 +8607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8802,7 +8624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I25">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8819,7 +8641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H24">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8834,7 +8656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8858,11 +8680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L27:T31"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8877,50 +8699,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="41" t="s">
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -8929,22 +8751,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -8962,17 +8784,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -8993,17 +8815,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -9024,17 +8846,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -9055,17 +8877,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -9086,17 +8908,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -9117,17 +8939,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -9148,17 +8970,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -9179,17 +9001,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -9210,17 +9032,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -9241,17 +9063,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -9272,17 +9094,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -9303,17 +9125,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -9334,17 +9156,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -9365,17 +9187,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -9396,17 +9218,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -9427,17 +9249,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -9458,17 +9280,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -9489,17 +9311,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -9520,17 +9342,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -9551,17 +9373,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -9582,17 +9404,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -9613,17 +9435,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -9640,10 +9462,10 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U27" s="43"/>
+      <c r="U27" s="23"/>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U31" s="43"/>
+      <c r="U31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9655,7 +9477,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9672,7 +9494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9689,7 +9511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -9704,7 +9526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9719,7 +9541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9736,7 +9558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9753,7 +9575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I25">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9770,7 +9592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H25">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -9810,13 +9632,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9824,10 +9646,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9835,10 +9657,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9846,10 +9668,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9857,10 +9679,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9868,10 +9690,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9879,10 +9701,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9890,10 +9712,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EE9230-1D2E-40EB-9FAF-684A5E423762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DDEABE-EC71-4D59-BF4E-1B9D3B02ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2349,11 +2349,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
@@ -4052,7 +4052,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
@@ -6790,7 +6790,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6906,14 +6906,14 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8680,7 +8680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DDEABE-EC71-4D59-BF4E-1B9D3B02ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784A6F9A-3945-4F19-97D9-5990B190A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2349,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3164,7 +3164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -4023,7 +4023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -4052,7 +4052,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4899,7 +4899,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -6761,7 +6761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H22">
+  <conditionalFormatting sqref="H22 H24">
     <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
@@ -6790,7 +6790,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="str">
         <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
@@ -8680,7 +8680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784A6F9A-3945-4F19-97D9-5990B190A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F2825-FBB8-4D63-B4BE-4CFFE6736A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -3164,7 +3164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -4023,7 +4023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -4048,11 +4048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>0</v>
@@ -4899,7 +4899,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -6761,7 +6761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H24">
+  <conditionalFormatting sqref="H24 H22">
     <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
@@ -8680,7 +8680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F2825-FBB8-4D63-B4BE-4CFFE6736A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC7CBB6-0AB3-439E-A2D0-D51EFF102FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="33150" windowHeight="17700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -3164,7 +3164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -4023,7 +4023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -4048,11 +4048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4899,7 +4899,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -6761,7 +6761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H22">
+  <conditionalFormatting sqref="H22 H24">
     <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
@@ -6786,11 +6786,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3" t="str">
         <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
@@ -6906,14 +6906,14 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8684,7 +8684,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3" t="str">
         <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>

--- a/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC7CBB6-0AB3-439E-A2D0-D51EFF102FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B5F383-F4F1-4969-9E8F-69492960C660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="33150" windowHeight="17700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +66,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -87,7 +98,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -129,7 +141,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -160,7 +173,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -202,7 +216,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -233,7 +248,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -275,7 +291,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -306,7 +323,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -348,7 +366,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -379,7 +398,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -421,7 +441,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -452,7 +473,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -494,7 +516,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -525,7 +548,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -567,7 +591,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -598,7 +623,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Τράπεζα της Ελλάδος
 (Athens mint)</t>
@@ -626,7 +652,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="162">
   <si>
     <t>-</t>
   </si>
@@ -638,12 +664,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -1010,9 +1030,6 @@
     <t>Obv: With mint letter in star</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Obv: Athenian trireme</t>
   </si>
   <si>
@@ -1110,6 +1127,18 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1177,15 +1206,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1384,7 +1408,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1447,6 +1471,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2353,61 +2380,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="32"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2416,19 +2442,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -2446,14 +2472,14 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -2474,14 +2500,14 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -2502,14 +2528,14 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2530,14 +2556,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2558,14 +2584,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2586,14 +2612,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2614,14 +2640,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2642,14 +2668,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2670,14 +2696,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2698,14 +2724,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2726,14 +2752,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2754,14 +2780,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -2782,14 +2808,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -2810,14 +2836,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -2838,14 +2864,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -2866,14 +2892,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -2894,14 +2920,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -2922,14 +2948,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -2950,14 +2976,14 @@
         <v>2020</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -2978,14 +3004,14 @@
         <v>2021</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -3006,14 +3032,14 @@
         <v>2022</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>0</v>
@@ -3034,14 +3060,14 @@
         <v>2023</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>0</v>
@@ -3058,14 +3084,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H5:H21">
     <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
@@ -3164,7 +3190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -3193,61 +3219,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="37"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="38"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3256,19 +3281,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -3286,14 +3311,14 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -3314,14 +3339,14 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3342,14 +3367,14 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3370,14 +3395,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3398,14 +3423,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3426,14 +3451,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3454,14 +3479,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3482,14 +3507,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3510,14 +3535,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3538,14 +3563,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3566,14 +3591,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3594,14 +3619,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -3622,14 +3647,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -3650,14 +3675,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3678,14 +3703,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3706,14 +3731,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -3734,14 +3759,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -3762,14 +3787,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -3790,14 +3815,14 @@
         <v>2020</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -3818,14 +3843,14 @@
         <v>2021</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -3846,14 +3871,14 @@
         <v>2022</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>0</v>
@@ -3874,14 +3899,14 @@
         <v>2023</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>0</v>
@@ -3898,14 +3923,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G5:G21 G23 G25">
     <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
@@ -4023,7 +4048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -4052,61 +4077,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="32"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4115,19 +4139,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -4145,14 +4169,14 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -4173,14 +4197,14 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -4201,14 +4225,14 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4229,14 +4253,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4257,14 +4281,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4285,14 +4309,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4313,14 +4337,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4341,14 +4365,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -4369,14 +4393,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -4397,14 +4421,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -4425,14 +4449,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -4453,14 +4477,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -4481,14 +4505,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -4509,14 +4533,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4537,14 +4561,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4565,14 +4589,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -4593,14 +4617,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -4621,14 +4645,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -4649,14 +4673,14 @@
         <v>2020</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -4677,14 +4701,14 @@
         <v>2021</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -4705,14 +4729,14 @@
         <v>2022</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>0</v>
@@ -4733,14 +4757,14 @@
         <v>2023</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>0</v>
@@ -4757,14 +4781,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G16:G21 G5:G14 G23 G25">
     <cfRule type="containsText" dxfId="53" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
@@ -4899,7 +4923,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
@@ -4928,65 +4952,64 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -4995,22 +5018,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -5028,17 +5051,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -5059,17 +5082,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -5090,17 +5113,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -5121,17 +5144,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -5152,17 +5175,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -5183,17 +5206,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -5214,17 +5237,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -5245,17 +5268,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -5276,17 +5299,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -5307,17 +5330,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -5338,17 +5361,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -5369,17 +5392,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -5400,17 +5423,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -5431,17 +5454,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -5462,17 +5485,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -5493,17 +5516,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -5524,17 +5547,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -5555,17 +5578,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -5586,17 +5609,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -5617,17 +5640,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -5648,17 +5671,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -5679,17 +5702,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -5706,14 +5729,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I3">
     <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
@@ -5875,65 +5898,64 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -5942,22 +5964,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -5975,17 +5997,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -6006,17 +6028,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -6037,17 +6059,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -6068,17 +6090,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -6099,17 +6121,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -6130,17 +6152,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -6161,17 +6183,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -6192,17 +6214,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -6223,17 +6245,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -6254,17 +6276,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -6285,17 +6307,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -6316,17 +6338,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -6347,17 +6369,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -6378,17 +6400,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -6409,17 +6431,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -6440,17 +6462,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -6471,17 +6493,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -6502,17 +6524,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -6533,17 +6555,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -6564,17 +6586,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -6595,17 +6617,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -6626,17 +6648,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -6653,14 +6675,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I3">
     <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
@@ -6761,7 +6783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H24">
+  <conditionalFormatting sqref="H24 H22">
     <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
@@ -6786,69 +6808,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -6857,22 +6878,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -6890,17 +6911,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -6921,17 +6942,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -6952,17 +6973,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -6983,17 +7004,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -7014,17 +7035,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -7045,17 +7066,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -7076,17 +7097,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -7107,17 +7128,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -7138,17 +7159,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -7169,17 +7190,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -7200,17 +7221,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -7231,17 +7252,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -7262,17 +7283,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -7293,17 +7314,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -7324,17 +7345,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -7355,17 +7376,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -7386,17 +7407,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -7417,17 +7438,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -7448,17 +7469,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -7479,17 +7500,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -7511,17 +7532,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -7542,17 +7563,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -7572,14 +7593,14 @@
       <c r="U27" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I3">
     <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
@@ -7739,65 +7760,64 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -7806,22 +7826,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -7839,17 +7859,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -7870,17 +7890,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -7901,17 +7921,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -7932,17 +7952,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -7963,17 +7983,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -7994,17 +8014,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -8025,17 +8045,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -8056,17 +8076,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -8087,17 +8107,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -8118,17 +8138,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -8149,17 +8169,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -8180,17 +8200,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -8211,17 +8231,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -8242,17 +8262,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -8273,17 +8293,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -8304,17 +8324,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -8335,17 +8355,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -8366,17 +8386,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -8397,17 +8417,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -8428,17 +8448,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -8459,17 +8479,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -8490,17 +8510,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -8517,14 +8537,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I3">
     <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
@@ -8680,69 +8700,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -8751,22 +8770,22 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -8784,17 +8803,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -8815,17 +8834,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -8846,17 +8865,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -8877,17 +8896,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -8908,17 +8927,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -8939,17 +8958,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -8970,17 +8989,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -9001,17 +9020,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -9032,17 +9051,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -9063,17 +9082,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -9094,17 +9113,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -9125,17 +9144,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -9156,17 +9175,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -9187,17 +9206,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -9218,17 +9237,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -9249,17 +9268,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -9280,17 +9299,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -9311,17 +9330,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -9342,17 +9361,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -9373,17 +9392,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -9404,17 +9423,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -9435,17 +9454,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -9468,14 +9487,14 @@
       <c r="U31" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I3">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
@@ -9632,13 +9651,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9646,10 +9665,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9657,10 +9676,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9668,10 +9687,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9679,10 +9698,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9690,10 +9709,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9701,10 +9720,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9712,10 +9731,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
